--- a/WB_Specification.xlsx
+++ b/WB_Specification.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0325299-31F4-4360-A493-50A5957B1ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B9818-C136-467E-B935-F8EA7CE3E5A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
     <sheet name="Account" sheetId="13" r:id="rId2"/>
     <sheet name="Asset" sheetId="48" r:id="rId3"/>
     <sheet name="Deal" sheetId="89" r:id="rId4"/>
-    <sheet name="Face" sheetId="41" r:id="rId5"/>
-    <sheet name="Geo" sheetId="172" r:id="rId6"/>
-    <sheet name="Info" sheetId="339" r:id="rId7"/>
-    <sheet name="Item" sheetId="98" r:id="rId8"/>
-    <sheet name="Mark" sheetId="342" r:id="rId9"/>
-    <sheet name="Meter" sheetId="481" r:id="rId10"/>
-    <sheet name="Price" sheetId="219" r:id="rId11"/>
-    <sheet name="Process" sheetId="30" r:id="rId12"/>
-    <sheet name="Role" sheetId="273" r:id="rId13"/>
-    <sheet name="Sign" sheetId="254" r:id="rId14"/>
-    <sheet name="Slice" sheetId="399" r:id="rId15"/>
-    <sheet name="Tax" sheetId="93" r:id="rId16"/>
+    <sheet name="Debt" sheetId="93" r:id="rId5"/>
+    <sheet name="Face" sheetId="41" r:id="rId6"/>
+    <sheet name="Geo" sheetId="172" r:id="rId7"/>
+    <sheet name="Info" sheetId="339" r:id="rId8"/>
+    <sheet name="Item" sheetId="98" r:id="rId9"/>
+    <sheet name="Mark" sheetId="342" r:id="rId10"/>
+    <sheet name="Meter" sheetId="481" r:id="rId11"/>
+    <sheet name="Price" sheetId="219" r:id="rId12"/>
+    <sheet name="Process" sheetId="30" r:id="rId13"/>
+    <sheet name="Role" sheetId="273" r:id="rId14"/>
+    <sheet name="Sign" sheetId="254" r:id="rId15"/>
+    <sheet name="Slice" sheetId="399" r:id="rId16"/>
     <sheet name="Unit" sheetId="91" r:id="rId17"/>
     <sheet name="Workbook" sheetId="236" r:id="rId18"/>
   </sheets>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="71">
   <si>
     <t>Счет</t>
   </si>
   <si>
-    <t>Налог</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>БухСчет</t>
   </si>
   <si>
-    <t>Tax</t>
-  </si>
-  <si>
     <t>Лицо</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t xml:space="preserve">   ---структура калькуляций</t>
   </si>
   <si>
-    <t>каталог актива, владелец и т.д.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Role    </t>
   </si>
   <si>
@@ -210,12 +201,6 @@
     <t>Инфо</t>
   </si>
   <si>
-    <t>Process1</t>
-  </si>
-  <si>
-    <t>Процесс1</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -237,33 +222,12 @@
     <t>Ид</t>
   </si>
   <si>
-    <t>ДАННЫЕ О ПРОЕКТЕ BaseNo1C</t>
-  </si>
-  <si>
     <t>MeterValue</t>
   </si>
   <si>
     <t>Значение измерителя</t>
   </si>
   <si>
-    <t>Ед изм1</t>
-  </si>
-  <si>
-    <t>Unit1</t>
-  </si>
-  <si>
-    <t>Asset1</t>
-  </si>
-  <si>
-    <t>Актив1</t>
-  </si>
-  <si>
-    <t>Account1</t>
-  </si>
-  <si>
-    <t>Бухсчет1</t>
-  </si>
-  <si>
     <t>эта таблица одна заменяет более 20-ти таблиц, иначе которых бы пришлось сделать,</t>
   </si>
   <si>
@@ -276,19 +240,16 @@
     <t>Workbook</t>
   </si>
   <si>
-    <t>Workbook1</t>
-  </si>
-  <si>
-    <t>Рабочая книга1</t>
-  </si>
-  <si>
-    <t>Рабочая книга2</t>
-  </si>
-  <si>
-    <t>Workbook2</t>
-  </si>
-  <si>
     <t>строка</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Долг</t>
+  </si>
+  <si>
+    <t>ДАННЫЕ О ПРОЕКТЕ WorkbookBasic</t>
   </si>
 </sst>
 </file>
@@ -456,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -513,9 +474,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -874,7 +832,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,17 +842,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>26</v>
+      <c r="A3" s="30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -909,15 +867,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -927,94 +988,94 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1023,16 +1084,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1042,136 +1101,112 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>8</v>
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>2</v>
+      <c r="A13" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1180,12 +1215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -1200,118 +1235,118 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>43</v>
+      <c r="A10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1325,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1335,11 +1370,11 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>79</v>
+      <c r="A17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1350,10 +1385,10 @@
     </row>
     <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1364,10 +1399,10 @@
     </row>
     <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1377,11 +1412,11 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>10</v>
+      <c r="A20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1391,11 +1426,11 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>45</v>
+      <c r="A21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1406,10 +1441,10 @@
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1419,11 +1454,11 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>6</v>
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1433,11 +1468,11 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>17</v>
+      <c r="A24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1448,10 +1483,10 @@
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1461,62 +1496,20 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>21</v>
+      <c r="A26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>62</v>
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1527,16 +1520,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1547,85 +1538,85 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1634,12 +1625,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1669,104 +1660,104 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -1776,16 +1767,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1795,240 +1784,90 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2037,11 +1876,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2051,105 +1888,96 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>69</v>
+      <c r="A12" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2163,7 +1991,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2175,122 +2003,122 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>64</v>
+      <c r="A4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>43</v>
+      <c r="A9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2298,126 +2126,118 @@
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>79</v>
+      <c r="A17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="A19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>17</v>
+      <c r="A22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
+      <c r="B29" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2251,7 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2448,58 +2268,58 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>43</v>
+      <c r="A7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2507,71 +2327,62 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2586,11 +2397,9 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2601,161 +2410,126 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="17"/>
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
+      <c r="A14" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2783,141 +2557,141 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10"/>
     </row>
@@ -2929,15 +2703,145 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I16"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2947,141 +2851,124 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3091,16 +2978,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3110,90 +2995,90 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -3203,10 +3088,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -3216,10 +3101,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -3235,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3246,93 +3131,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="30" style="30" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="28.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="30" style="29" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
+      <c r="A5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,12 +3226,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3355,16 +3240,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3374,105 +3257,105 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>64</v>
+      <c r="A6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3480,109 +3363,4 @@
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:C11"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WB_Specification.xlsx
+++ b/WB_Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B9818-C136-467E-B935-F8EA7CE3E5A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668309B-EA3E-4C46-80AB-C295565F88EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>

--- a/WB_Specification.xlsx
+++ b/WB_Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\WorkbookBasic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668309B-EA3E-4C46-80AB-C295565F88EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCD0B6-B5D7-4238-ACCE-7FD7A3EF9515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="772" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <sheet name="Unit" sheetId="91" r:id="rId17"/>
     <sheet name="Workbook" sheetId="236" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="70">
   <si>
     <t>Счет</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Workbook</t>
-  </si>
-  <si>
-    <t>строка</t>
   </si>
   <si>
     <t>Debt</t>
@@ -842,7 +839,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -873,7 +870,9 @@
   </sheetPr>
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -936,9 +935,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -978,7 +975,9 @@
   </sheetPr>
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1041,9 +1040,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1091,7 +1088,9 @@
   </sheetPr>
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1154,9 +1153,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1220,9 +1217,11 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1320,9 +1319,7 @@
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1342,25 +1339,20 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1370,11 +1362,11 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>8</v>
+      <c r="A17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1384,11 +1376,11 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>42</v>
+      <c r="A18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1398,11 +1390,11 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
+      <c r="A19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1412,11 +1404,11 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>68</v>
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1426,11 +1418,11 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>15</v>
+      <c r="A21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1440,11 +1432,11 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
+      <c r="A22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1454,11 +1446,11 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>19</v>
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1468,11 +1460,11 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>36</v>
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1482,11 +1474,11 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>61</v>
+      <c r="A25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1496,20 +1488,42 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1541,9 @@
   </sheetPr>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1591,9 +1607,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1644,7 +1658,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -1714,9 +1728,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1736,30 +1748,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1774,7 +1768,9 @@
   </sheetPr>
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1837,9 +1833,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1941,9 +1935,7 @@
       <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1993,7 +1985,9 @@
   </sheetPr>
   <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2083,9 +2077,7 @@
       <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -2163,10 +2155,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="10"/>
     </row>
@@ -2253,7 +2245,9 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2332,9 +2326,7 @@
       <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
@@ -2399,7 +2391,9 @@
   </sheetPr>
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2463,9 +2457,7 @@
       <c r="B8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,7 +2538,9 @@
   </sheetPr>
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2636,9 +2630,7 @@
       <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,7 +2701,9 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2725,15 +2719,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2775,9 +2769,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -2841,7 +2833,7 @@
   </sheetPr>
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2904,9 +2896,7 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2985,7 +2975,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3053,9 +3045,7 @@
       <c r="B8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -3192,9 +3182,7 @@
       <c r="B8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -3247,7 +3235,9 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3320,9 +3310,7 @@
       <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
